--- a/WB_rendu.xlsx
+++ b/WB_rendu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\OneDrive\Bureau\UTC\P19\US02 - Data Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\OneDrive\Bureau\UTC\P19\US02 - Data Science\WB_rendu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1172,9 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
